--- a/similarities/split_global/harmonic_similarity_timestamps_355.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_355.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,732 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['A:min', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['D:min', 'C/3', 'F']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:09.320000', '0:04:23.440000')]</t>
+          <t>('0:00:23.936132', '0:00:26.885065')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:04:02.220000', '0:04:09.260000')]</t>
+          <t>('0:00:21.155000', '0:00:23.330000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=249.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=23.936132</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=21.155</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:16.192174', '0:00:27.488682')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+          <t>('0:00:09.370997', '0:00:14.746417')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=9.370997</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:04.180000', '0:00:11.620000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=4.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'F#:maj/A#', 'C#:maj/G#']]</t>
+          <t>['E:7', 'A', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G/3']]</t>
+          <t>['F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:26.340000', '0:00:28.760000')]</t>
+          <t>('0:00:03.509000', '0:00:18.764000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:34.416000', '0:00:41.151000')]</t>
+          <t>('0:00:09.540000', '0:00:13.760000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=26.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=3.509</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=34.416']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:22.660000', '0:00:29.320000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:01:37.220000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=22.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=97.22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+          <t>('0:00:09.738333', '0:00:15.380782')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:00:44.820000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:21.800000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.900000', '0:00:07.720000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G:7', 'G:(3,5,b7,b9)/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+          <t>('0:00:04.940000', '0:00:23.240000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
+          <t>('0:02:19.760000', '0:02:22.680000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=4.94</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=47.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=139.76</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:00:19.840000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000')]</t>
+          <t>('0:00:41.140000', '0:00:53.020000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=19.84</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=41.14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:08.540000', '0:01:22.320000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:41.770000', '0:00:54.590000')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D', 'A', 'A:7/b7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:10.160000', '0:00:25.400000')]</t>
+          <t>('0:01:00.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:07.500000')]</t>
+          <t>('0:01:03.382018', '0:01:11.149092')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=10.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:54.780000', '0:00:57.520000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:18.160000', '0:00:39.800000')]</t>
+          <t>('0:00:22.360000', '0:00:25.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=54.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-35#t=22.36</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:02:03.220000', '0:02:06.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1171,11 +1217,9 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
